--- a/Training/LSTM_ETH_result3.xlsx
+++ b/Training/LSTM_ETH_result3.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>47.99888466039516</v>
+        <v>51.61860029186825</v>
       </c>
       <c r="F1" t="n">
-        <v>42.69921886022692</v>
+        <v>45.85119155189432</v>
       </c>
       <c r="G1" t="n">
-        <v>3.302661768307495</v>
+        <v>3.556360177700631</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>39.12729289214497</v>
+        <v>49.10014620586816</v>
       </c>
       <c r="F2" t="n">
-        <v>34.0146860656446</v>
+        <v>43.01309969433423</v>
       </c>
       <c r="G2" t="n">
-        <v>2.632191144882206</v>
+        <v>3.348423885249852</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>51.74183840160437</v>
+        <v>50.86193764027471</v>
       </c>
       <c r="F3" t="n">
-        <v>47.16665556612501</v>
+        <v>45.27258483863397</v>
       </c>
       <c r="G3" t="n">
-        <v>3.61672262418502</v>
+        <v>3.506469532412635</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>41.36941654655298</v>
+        <v>37.96342197117425</v>
       </c>
       <c r="F4" t="n">
-        <v>36.35942336142014</v>
+        <v>32.51277524031284</v>
       </c>
       <c r="G4" t="n">
-        <v>2.821677309580993</v>
+        <v>2.537825505963614</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>31.68930233870293</v>
+        <v>41.88818076670611</v>
       </c>
       <c r="F5" t="n">
-        <v>26.96038400341838</v>
+        <v>35.74269073264603</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08854793361646</v>
+        <v>2.803071776267643</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>28.88032276867416</v>
+        <v>24.71268601181375</v>
       </c>
       <c r="F6" t="n">
-        <v>24.41341487114245</v>
+        <v>19.97849279481724</v>
       </c>
       <c r="G6" t="n">
-        <v>1.881673977491</v>
+        <v>1.537256717096753</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17.5077332048766</v>
+        <v>31.61844184864182</v>
       </c>
       <c r="F7" t="n">
-        <v>12.86526993181887</v>
+        <v>26.46706297054247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9701387070080099</v>
+        <v>2.06258034024837</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>34.7383398947237</v>
+        <v>46.02069333839977</v>
       </c>
       <c r="F8" t="n">
-        <v>30.12528299205238</v>
+        <v>41.51137560171574</v>
       </c>
       <c r="G8" t="n">
-        <v>2.341449590395527</v>
+        <v>3.199793925364737</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>23.56868568727281</v>
+        <v>29.56327098110572</v>
       </c>
       <c r="F9" t="n">
-        <v>19.51341552312227</v>
+        <v>24.80361913829089</v>
       </c>
       <c r="G9" t="n">
-        <v>1.495778049782761</v>
+        <v>1.930556147766743</v>
       </c>
     </row>
   </sheetData>
